--- a/biology/Zoologie/Dorcadion_thessalicum/Dorcadion_thessalicum.xlsx
+++ b/biology/Zoologie/Dorcadion_thessalicum/Dorcadion_thessalicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dorcadion thessalicum est une espèce de coléoptères de la famille des Cerambycidae et qui se rencontre en Bulgarie et en Grèce[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dorcadion thessalicum est une espèce de coléoptères de la famille des Cerambycidae et qui se rencontre en Bulgarie et en Grèce.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Dorcadion thessalicum a été décrite en 1916 par l'entomologiste français Maurice Pic (1866–1957)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Dorcadion thessalicum a été décrite en 1916 par l'entomologiste français Maurice Pic (1866–1957).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (21 juillet 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (21 juillet 2021) :
 Dorcadion thessalicum gioachinoi Pesarini &amp; Sabbadini, 2007
 Dorcadion thessalicum pelionense Breit, 1923
 Dorcadion thessalicum thessalicum Pic, 1916</t>
